--- a/public/import.xlsx
+++ b/public/import.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\Self\Belajar Laravel\Laravel 6\Project\inventaris\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EED8CD8-728F-4188-A0E4-252A53D2937B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C49C875-09F5-DB4E-90CF-29A46201B74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -51,6 +43,9 @@
     <t>Lokasi</t>
   </si>
   <si>
+    <t>Tahun Pembelian</t>
+  </si>
+  <si>
     <t>Kondisi</t>
   </si>
   <si>
@@ -64,9 +59,6 @@
   </si>
   <si>
     <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Tanggal Pembelian (DD-MM-YYYY)</t>
   </si>
 </sst>
 </file>
@@ -408,28 +400,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,26 +444,27 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>